--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_ospf_test_ni_ospf_router_id_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_ospf_test_ni_ospf_router_id_logs.xlsx
@@ -510,8 +510,46 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:476baffb-b5de-4564-b8cd-8a8d2ff3fcca"&gt;
-  &lt;data/&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:e343cca6-a099-4e68-9615-62c22daf9e05"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
 &lt;/rpc-reply&gt;
 </t>
         </is>
@@ -532,11 +570,11 @@
           &lt;/config&gt;
           &lt;protocols&gt;
             &lt;protocol&gt;
-              &lt;identifier&gt;OSPF&lt;/identifier&gt;
-              &lt;name&gt;OSPF_1&lt;/name&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
               &lt;config&gt;
                 &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
-                &lt;name&gt;OSPF_1&lt;/name&gt;
+                &lt;name&gt;22&lt;/name&gt;
               &lt;/config&gt;
               &lt;ospfv2&gt;
                 &lt;global&gt;
@@ -553,8 +591,78 @@
   &lt;/edit-config&gt;</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:bf2ca505-1893-4a3f-b1d3-cb2856ade5c4"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:7553a56d-2610-400c-a5b6-91cb5a310d5f" nc-ext:flow-id="254"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:5736bd59-826c-40be-a10a-c5fc7571c73e"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;global&gt;
+                &lt;config&gt;
+                  &lt;router-id&gt;172.16.1.3&lt;/router-id&gt;
+                &lt;/config&gt;
+              &lt;/global&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
